--- a/biology/Microbiologie/Rovinjellidae/Rovinjellidae.xlsx
+++ b/biology/Microbiologie/Rovinjellidae/Rovinjellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rovinjellidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Rovinjella.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rovinjellidae ont une taille moyenne (80 à 200 µm). Leur forme est allongée, cylindrique-conique. Leurs zooïdes forme des colonies à deux chaînons, partageant une tige en deux parties - dans la lorique existe une partie proximale qui se plie en accordéon lors de la contraction, et une partie distale non contractile située à l'extérieur, laquelle est attachée au substrat ; cette lorica est largement béante à son extrémité supérieure (extrémité orale). Leur région buccale comprend, notamment, un grand disque épistomial légèrement protubérant. Leur macronoyau est en forme de bande. Une vacuole contractile est présente. Par contre, micronoyau et cytoprocte n'ont pas été observés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rovinjellidae ont une taille moyenne (80 à 200 µm). Leur forme est allongée, cylindrique-conique. Leurs zooïdes forme des colonies à deux chaînons, partageant une tige en deux parties - dans la lorique existe une partie proximale qui se plie en accordéon lors de la contraction, et une partie distale non contractile située à l'extérieur, laquelle est attachée au substrat ; cette lorica est largement béante à son extrémité supérieure (extrémité orale). Leur région buccale comprend, notamment, un grand disque épistomial légèrement protubérant. Leur macronoyau est en forme de bande. Une vacuole contractile est présente. Par contre, micronoyau et cytoprocte n'ont pas été observés.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rovinjellidae vivent en eau de mer comme en eau douce sur des crustacés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rovinjellidae vivent en eau de mer comme en eau douce sur des crustacés.
 </t>
         </is>
       </c>
@@ -604,13 +622,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (19 janvier 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (19 janvier 2024) :
 Rovinjella Matthes, 1972
-Espèce type : Rovinjella spheromae  Matthes, 1972[3]
+Espèce type : Rovinjella spheromae  Matthes, 1972
 Shellositon Jankowski, 1993
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Grainis Jankowski, 1997
 Rovinjella Matthes, 1972
 Shellositon Jankowski, 1993
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Rovinjellidae Matthes, 1972[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Rovinjellidae Matthes, 1972.
 </t>
         </is>
       </c>
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) D. Matthes, « Rovinjella spheromae nov. gen., nov. spec. (Rovinjellidae nov. fam.) ein mariner Symphoriont », Zoologischer Anzeiger, vol. 189, nos 3-4,‎ 1972, p. 266-272 (ISSN 0044-5231, e-ISSN 1873-2674)</t>
         </is>
